--- a/data/pca/factorExposure/factorExposure_2016-10-07.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-10-07.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +711,76 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01195501004030865</v>
+        <v>0.01223267480630064</v>
       </c>
       <c r="C2">
-        <v>0.05139204334651872</v>
+        <v>0.04305532375488009</v>
       </c>
       <c r="D2">
-        <v>0.0226048624430046</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.06460387278988344</v>
+      </c>
+      <c r="E2">
+        <v>0.0505894883908098</v>
+      </c>
+      <c r="F2">
+        <v>-0.08575004556027901</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>-0.05217183546919347</v>
+        <v>0.03146605032152658</v>
       </c>
       <c r="C3">
-        <v>0.09973278411391458</v>
+        <v>0.08059840223799528</v>
       </c>
       <c r="D3">
-        <v>0.05145534633353562</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.09841995354625767</v>
+      </c>
+      <c r="E3">
+        <v>0.06456483260824</v>
+      </c>
+      <c r="F3">
+        <v>-0.01973297065276179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.06478701786220019</v>
+        <v>0.05531209494241287</v>
       </c>
       <c r="C4">
-        <v>0.05806046868388964</v>
+        <v>0.06475535731489934</v>
       </c>
       <c r="D4">
-        <v>0.01659514651873326</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.06017004638170501</v>
+      </c>
+      <c r="E4">
+        <v>0.04618493421307303</v>
+      </c>
+      <c r="F4">
+        <v>-0.08025550125620881</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.02861569897548024</v>
+        <v>0.03238252850422238</v>
       </c>
       <c r="C6">
-        <v>0.04270124973688958</v>
+        <v>0.03731559655200493</v>
       </c>
       <c r="D6">
-        <v>0.02651830413238854</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.07066147419640796</v>
+      </c>
+      <c r="E6">
+        <v>0.05877401189572369</v>
+      </c>
+      <c r="F6">
+        <v>-0.07383847581569025</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.02271621492348166</v>
+        <v>0.01972525357043609</v>
       </c>
       <c r="C7">
-        <v>0.03933759059293634</v>
+        <v>0.03621256954830385</v>
       </c>
       <c r="D7">
-        <v>-0.004616443499196768</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.04023908254826054</v>
+      </c>
+      <c r="E7">
+        <v>0.03292760399293632</v>
+      </c>
+      <c r="F7">
+        <v>-0.1091011892601367</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.001108254561323787</v>
+        <v>0.003556402399971102</v>
       </c>
       <c r="C8">
-        <v>0.01836117534705684</v>
+        <v>0.02508647462046859</v>
       </c>
       <c r="D8">
-        <v>0.03019389847577783</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03655904325560754</v>
+      </c>
+      <c r="E8">
+        <v>0.03924429599604901</v>
+      </c>
+      <c r="F8">
+        <v>-0.05340419106668278</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.02919771090646436</v>
+        <v>0.03451432763898677</v>
       </c>
       <c r="C9">
-        <v>0.04225941384684313</v>
+        <v>0.05078369856576462</v>
       </c>
       <c r="D9">
-        <v>0.01159825948088187</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.04596035789053858</v>
+      </c>
+      <c r="E9">
+        <v>0.03841335016385755</v>
+      </c>
+      <c r="F9">
+        <v>-0.08793799155107952</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.07884197232339185</v>
+        <v>0.104221750227732</v>
       </c>
       <c r="C10">
-        <v>-0.1914304208276162</v>
+        <v>-0.1871468980668684</v>
       </c>
       <c r="D10">
-        <v>0.009609551120112265</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.001145858776433703</v>
+      </c>
+      <c r="E10">
+        <v>0.04441385633892649</v>
+      </c>
+      <c r="F10">
+        <v>-0.03861073560744629</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.03965552770098444</v>
+        <v>0.03433291002980805</v>
       </c>
       <c r="C11">
-        <v>0.05437051549316452</v>
+        <v>0.05171574406529397</v>
       </c>
       <c r="D11">
-        <v>-0.002286330923554032</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.03325408248354961</v>
+      </c>
+      <c r="E11">
+        <v>0.004775561698450705</v>
+      </c>
+      <c r="F11">
+        <v>-0.06382309096444917</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.0349189199426397</v>
+        <v>0.03521097103600199</v>
       </c>
       <c r="C12">
-        <v>0.04434587822333903</v>
+        <v>0.04672618446359255</v>
       </c>
       <c r="D12">
-        <v>-0.0005976890525512367</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02629355166194157</v>
+      </c>
+      <c r="E12">
+        <v>0.01402901263574178</v>
+      </c>
+      <c r="F12">
+        <v>-0.06653643468415145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.01140758067311687</v>
+        <v>0.0113507335093803</v>
       </c>
       <c r="C13">
-        <v>0.04313328246447289</v>
+        <v>0.04163208873415807</v>
       </c>
       <c r="D13">
-        <v>0.01423379699746656</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.06742502831417398</v>
+      </c>
+      <c r="E13">
+        <v>0.06491396588205185</v>
+      </c>
+      <c r="F13">
+        <v>-0.1165182756622819</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.00778466247549056</v>
+        <v>0.005037721162909558</v>
       </c>
       <c r="C14">
-        <v>0.03202924595317728</v>
+        <v>0.02921270331528253</v>
       </c>
       <c r="D14">
-        <v>-0.01742254721048864</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03140424546612992</v>
+      </c>
+      <c r="E14">
+        <v>0.02665708157214805</v>
+      </c>
+      <c r="F14">
+        <v>-0.09849405519025704</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.001398009155273205</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.002283286854144941</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.002618102712912062</v>
+      </c>
+      <c r="E15">
+        <v>0.000768573168638509</v>
+      </c>
+      <c r="F15">
+        <v>-0.002227900546445765</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.03474737296435437</v>
+        <v>0.03231509311223973</v>
       </c>
       <c r="C16">
-        <v>0.03906181036764814</v>
+        <v>0.04459711943581369</v>
       </c>
       <c r="D16">
-        <v>0.004483903382552164</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02890300181698939</v>
+      </c>
+      <c r="E16">
+        <v>0.01920085801210535</v>
+      </c>
+      <c r="F16">
+        <v>-0.06853516920079218</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1031,16 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1051,176 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>-0.02402189345705563</v>
+        <v>0.01539024897991668</v>
       </c>
       <c r="C19">
-        <v>0.05970479469034096</v>
+        <v>0.04995265262724879</v>
       </c>
       <c r="D19">
-        <v>0.06752017671419151</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1038743547440008</v>
+      </c>
+      <c r="E19">
+        <v>0.07971983631089291</v>
+      </c>
+      <c r="F19">
+        <v>-0.09737477483378958</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.01439685587552951</v>
+        <v>0.01271123621127381</v>
       </c>
       <c r="C20">
-        <v>0.04365433876201617</v>
+        <v>0.04006226669853928</v>
       </c>
       <c r="D20">
-        <v>0.01492302363937113</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.04369960551036207</v>
+      </c>
+      <c r="E20">
+        <v>0.0553735704573869</v>
+      </c>
+      <c r="F20">
+        <v>-0.09005048300331417</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.009612454075707396</v>
+        <v>0.006386173390696464</v>
       </c>
       <c r="C21">
-        <v>0.04778590339091949</v>
+        <v>0.04293105916776226</v>
       </c>
       <c r="D21">
-        <v>0.03536419450610052</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.07478635804341149</v>
+      </c>
+      <c r="E21">
+        <v>0.068778325610465</v>
+      </c>
+      <c r="F21">
+        <v>-0.1342170585674063</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.0007256439546539526</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.02294409356550864</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.03326886317138238</v>
+      </c>
+      <c r="E22">
+        <v>0.01589574442524724</v>
+      </c>
+      <c r="F22">
+        <v>-0.01401617008573905</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.000659728622063075</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.02307528383062386</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.03296865105542009</v>
+      </c>
+      <c r="E23">
+        <v>0.01620247715158865</v>
+      </c>
+      <c r="F23">
+        <v>-0.01389147555534335</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.02885242353652347</v>
+        <v>0.03067676774618069</v>
       </c>
       <c r="C24">
-        <v>0.0459695319927692</v>
+        <v>0.05230239227736091</v>
       </c>
       <c r="D24">
-        <v>-0.0009091843438081863</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02675113685637084</v>
+      </c>
+      <c r="E24">
+        <v>0.01548554225367363</v>
+      </c>
+      <c r="F24">
+        <v>-0.07514978610037513</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.04554069765800362</v>
+        <v>0.04133220315090853</v>
       </c>
       <c r="C25">
-        <v>0.05692793466331757</v>
+        <v>0.0580915035400266</v>
       </c>
       <c r="D25">
-        <v>-0.01097667803679551</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.02437983815352754</v>
+      </c>
+      <c r="E25">
+        <v>0.01260791415483087</v>
+      </c>
+      <c r="F25">
+        <v>-0.07845284851047872</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.01112554704184418</v>
+        <v>0.01291879058000058</v>
       </c>
       <c r="C26">
-        <v>0.01630782582179023</v>
+        <v>0.01532630087465212</v>
       </c>
       <c r="D26">
-        <v>0.002679304949588328</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02664761902483264</v>
+      </c>
+      <c r="E26">
+        <v>0.02702887890805708</v>
+      </c>
+      <c r="F26">
+        <v>-0.0737527595464091</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1231,156 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.09143619438565914</v>
+        <v>0.1392403232100303</v>
       </c>
       <c r="C28">
-        <v>-0.2171696917136444</v>
+        <v>-0.2371777914024953</v>
       </c>
       <c r="D28">
-        <v>0.003091962763156408</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01513349532929163</v>
+      </c>
+      <c r="E28">
+        <v>0.04601835685835914</v>
+      </c>
+      <c r="F28">
+        <v>-0.05379960819856409</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.01215742437909684</v>
+        <v>0.005766881975142872</v>
       </c>
       <c r="C29">
-        <v>0.02590639046157174</v>
+        <v>0.02593066526159276</v>
       </c>
       <c r="D29">
-        <v>-0.01711761237426449</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.02417730266311935</v>
+      </c>
+      <c r="E29">
+        <v>0.03002464900517072</v>
+      </c>
+      <c r="F29">
+        <v>-0.09049596065020983</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.05096254191338276</v>
+        <v>0.03874694640897652</v>
       </c>
       <c r="C30">
-        <v>0.06451104848813644</v>
+        <v>0.06304420521890346</v>
       </c>
       <c r="D30">
-        <v>0.03338884157523857</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1098709007159466</v>
+      </c>
+      <c r="E30">
+        <v>0.03438779958334269</v>
+      </c>
+      <c r="F30">
+        <v>-0.1013987807358923</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.04278528823795742</v>
+        <v>0.05255070864625941</v>
       </c>
       <c r="C31">
-        <v>0.03228490529889184</v>
+        <v>0.05113571466087911</v>
       </c>
       <c r="D31">
-        <v>-0.01173504514270274</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.002837359941616766</v>
+      </c>
+      <c r="E31">
+        <v>0.0447005454930086</v>
+      </c>
+      <c r="F31">
+        <v>-0.08081387606732801</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.0007711171919842175</v>
+        <v>0.003450877640364708</v>
       </c>
       <c r="C32">
-        <v>0.04756448094541458</v>
+        <v>0.03042563803322052</v>
       </c>
       <c r="D32">
-        <v>0.01409022951603788</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.04932470384083962</v>
+      </c>
+      <c r="E32">
+        <v>0.02067571614872269</v>
+      </c>
+      <c r="F32">
+        <v>-0.06912853789188164</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.02540746811064972</v>
+        <v>0.02311164657480121</v>
       </c>
       <c r="C33">
-        <v>0.06156523482730011</v>
+        <v>0.05377371732381609</v>
       </c>
       <c r="D33">
-        <v>0.01868136631908927</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.08323827022789169</v>
+      </c>
+      <c r="E33">
+        <v>0.04822983362859208</v>
+      </c>
+      <c r="F33">
+        <v>-0.1278387344863446</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.04971138867219217</v>
+        <v>0.03978855779520749</v>
       </c>
       <c r="C34">
-        <v>0.05416539344922168</v>
+        <v>0.06375093325533075</v>
       </c>
       <c r="D34">
-        <v>-0.0131606991148959</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03415274893269864</v>
+      </c>
+      <c r="E34">
+        <v>-0.005637730062140626</v>
+      </c>
+      <c r="F34">
+        <v>-0.07422656691165638</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1391,36 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.008643183555679836</v>
+        <v>0.01335848795337249</v>
       </c>
       <c r="C36">
-        <v>0.01240456180268651</v>
+        <v>0.01147800551441826</v>
       </c>
       <c r="D36">
-        <v>0.002537049922362689</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02930855336559483</v>
+      </c>
+      <c r="E36">
+        <v>0.03457676692328653</v>
+      </c>
+      <c r="F36">
+        <v>-0.08275407595162629</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1431,156 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.03232205533554338</v>
+        <v>0.02533649224420637</v>
       </c>
       <c r="C38">
-        <v>0.02537694948267978</v>
+        <v>0.02483926967654127</v>
       </c>
       <c r="D38">
-        <v>0.001259450836874978</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02851118475277207</v>
+      </c>
+      <c r="E38">
+        <v>0.03457368230651871</v>
+      </c>
+      <c r="F38">
+        <v>-0.06703936300685281</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.0400806793985458</v>
+        <v>0.03635477370440644</v>
       </c>
       <c r="C39">
-        <v>0.07052220187118173</v>
+        <v>0.0678109443467797</v>
       </c>
       <c r="D39">
-        <v>0.0198404025889194</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.05214617315119349</v>
+      </c>
+      <c r="E39">
+        <v>0.01763363115138879</v>
+      </c>
+      <c r="F39">
+        <v>-0.08988117217467574</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.01832348675217493</v>
+        <v>0.01508941595518873</v>
       </c>
       <c r="C40">
-        <v>0.0293596532062536</v>
+        <v>0.03645457838545513</v>
       </c>
       <c r="D40">
-        <v>0.03428337829555089</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.04213905821804208</v>
+      </c>
+      <c r="E40">
+        <v>0.07118863262428185</v>
+      </c>
+      <c r="F40">
+        <v>-0.08719067942764012</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.01112861089061745</v>
+        <v>0.01795182156766962</v>
       </c>
       <c r="C41">
-        <v>0.003115908391222981</v>
+        <v>0.004604132278984104</v>
       </c>
       <c r="D41">
-        <v>-0.0007672464374497578</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01957443347821234</v>
+      </c>
+      <c r="E41">
+        <v>0.03679076218729305</v>
+      </c>
+      <c r="F41">
+        <v>-0.07263572951878744</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
-        <v>-0.001192289757271799</v>
+        <v>0.0006107223645922242</v>
       </c>
       <c r="C42">
-        <v>0.01645925372003334</v>
+        <v>0.008650436660696714</v>
       </c>
       <c r="D42">
-        <v>0.008301257327525157</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.002626297318280054</v>
+      </c>
+      <c r="E42">
+        <v>0.007358624381475527</v>
+      </c>
+      <c r="F42">
+        <v>0.01437556288670194</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.03221482551512148</v>
+        <v>0.02956340889096205</v>
       </c>
       <c r="C43">
-        <v>0.01700948158886533</v>
+        <v>0.01943701743040342</v>
       </c>
       <c r="D43">
-        <v>0.006778783904369898</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.04402652631305015</v>
+      </c>
+      <c r="E43">
+        <v>0.04262459483449699</v>
+      </c>
+      <c r="F43">
+        <v>-0.08580783313943485</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.02165081000454219</v>
+        <v>0.01437543493305277</v>
       </c>
       <c r="C44">
-        <v>0.05399886850646753</v>
+        <v>0.05082185363643963</v>
       </c>
       <c r="D44">
-        <v>0.0189134464076948</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.0440804232026078</v>
+      </c>
+      <c r="E44">
+        <v>0.05721359339298504</v>
+      </c>
+      <c r="F44">
+        <v>-0.0920256915668429</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1591,76 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.002039196690368259</v>
+        <v>0.007153276398271953</v>
       </c>
       <c r="C46">
-        <v>0.01911288171077583</v>
+        <v>0.02342391079951926</v>
       </c>
       <c r="D46">
-        <v>-0.01509840231992098</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01636825853935329</v>
+      </c>
+      <c r="E46">
+        <v>0.03386692473456506</v>
+      </c>
+      <c r="F46">
+        <v>-0.1038538161250788</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.0773855425611865</v>
+        <v>0.08477603629036645</v>
       </c>
       <c r="C47">
-        <v>0.07429276975975942</v>
+        <v>0.07878319493421194</v>
       </c>
       <c r="D47">
-        <v>-0.004247287364823218</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01068635825055948</v>
+      </c>
+      <c r="E47">
+        <v>0.05215527580270781</v>
+      </c>
+      <c r="F47">
+        <v>-0.08085629855104849</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.01959637249975174</v>
+        <v>0.01537897267456885</v>
       </c>
       <c r="C48">
-        <v>0.01065311987379669</v>
+        <v>0.01652860351433871</v>
       </c>
       <c r="D48">
-        <v>-0.003892326171383395</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.02029750278519306</v>
+      </c>
+      <c r="E48">
+        <v>0.04448683321294652</v>
+      </c>
+      <c r="F48">
+        <v>-0.09664094992538465</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1671,56 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.08630957951233241</v>
+        <v>0.07111595768471582</v>
       </c>
       <c r="C50">
-        <v>0.0689883385494526</v>
+        <v>0.0694347891826972</v>
       </c>
       <c r="D50">
-        <v>-0.01369483850063287</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.0001000776809352696</v>
+      </c>
+      <c r="E50">
+        <v>0.04948430845992933</v>
+      </c>
+      <c r="F50">
+        <v>-0.06834270857637174</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.01143161541322079</v>
+        <v>0.009608866960418216</v>
       </c>
       <c r="C51">
-        <v>0.04558921345880174</v>
+        <v>0.03269621111611796</v>
       </c>
       <c r="D51">
-        <v>0.001053321275080579</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.04887115010363963</v>
+      </c>
+      <c r="E51">
+        <v>0.01913263096646358</v>
+      </c>
+      <c r="F51">
+        <v>-0.08535641545435456</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1731,196 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.09210974504860953</v>
+        <v>0.09047258634961565</v>
       </c>
       <c r="C53">
-        <v>0.07726793489877644</v>
+        <v>0.09024877964964356</v>
       </c>
       <c r="D53">
-        <v>-0.03615545589627067</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.03818037615488473</v>
+      </c>
+      <c r="E53">
+        <v>0.05346411720249518</v>
+      </c>
+      <c r="F53">
+        <v>-0.08894404505059701</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.02930970119234887</v>
+        <v>0.02718241812285197</v>
       </c>
       <c r="C54">
-        <v>0.01810372786165151</v>
+        <v>0.02601086958361487</v>
       </c>
       <c r="D54">
-        <v>0.004238627534759985</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03551022476446655</v>
+      </c>
+      <c r="E54">
+        <v>0.03773215712553057</v>
+      </c>
+      <c r="F54">
+        <v>-0.09549057761230371</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.07304947803456632</v>
+        <v>0.08190343596649441</v>
       </c>
       <c r="C55">
-        <v>0.07102607249457103</v>
+        <v>0.0746120721716705</v>
       </c>
       <c r="D55">
-        <v>-0.03447187189081902</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.04541855993013034</v>
+      </c>
+      <c r="E55">
+        <v>0.04425007017401698</v>
+      </c>
+      <c r="F55">
+        <v>-0.06454363004402267</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1487223201298233</v>
+        <v>0.1434721482641584</v>
       </c>
       <c r="C56">
-        <v>0.09618752036188523</v>
+        <v>0.1070348115602996</v>
       </c>
       <c r="D56">
-        <v>-0.03078049938627931</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.04860529754288622</v>
+      </c>
+      <c r="E56">
+        <v>0.04897125990812912</v>
+      </c>
+      <c r="F56">
+        <v>-0.0523174168441161</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
-        <v>-0.003774880539056584</v>
+        <v>0.001610498382914876</v>
       </c>
       <c r="C57">
-        <v>0.002902335795055836</v>
+        <v>0.00161538230081728</v>
       </c>
       <c r="D57">
-        <v>0.01498630082309028</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.0154378190093189</v>
+      </c>
+      <c r="E57">
+        <v>0.00669959723167247</v>
+      </c>
+      <c r="F57">
+        <v>-0.01361666516595339</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.07539843387379382</v>
+        <v>0.02964553507032874</v>
       </c>
       <c r="C58">
-        <v>0.04170698164172749</v>
+        <v>0.03417975642443671</v>
       </c>
       <c r="D58">
-        <v>0.9658277536228775</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.5088089863720888</v>
+      </c>
+      <c r="E58">
+        <v>0.6736327031896171</v>
+      </c>
+      <c r="F58">
+        <v>0.4498655755050229</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1370559110284341</v>
+        <v>0.151714217817923</v>
       </c>
       <c r="C59">
-        <v>-0.2026507267969</v>
+        <v>-0.1853880824965953</v>
       </c>
       <c r="D59">
-        <v>0.02375007530096229</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.03051725389389656</v>
+      </c>
+      <c r="E59">
+        <v>0.02444987103311427</v>
+      </c>
+      <c r="F59">
+        <v>-0.02332922759107816</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.3124365715207857</v>
+        <v>0.2792022146905116</v>
       </c>
       <c r="C60">
-        <v>0.08929043861580603</v>
+        <v>0.1047438687857801</v>
       </c>
       <c r="D60">
-        <v>-0.02586111900378964</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.2007251118212749</v>
+      </c>
+      <c r="E60">
+        <v>-0.2779049457596616</v>
+      </c>
+      <c r="F60">
+        <v>0.124858802295013</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.03616797305129164</v>
+        <v>0.0387841974749809</v>
       </c>
       <c r="C61">
-        <v>0.06207360887393104</v>
+        <v>0.06145526756690296</v>
       </c>
       <c r="D61">
-        <v>0.01064857006608671</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04749265673861865</v>
+      </c>
+      <c r="E61">
+        <v>0.02292576385567626</v>
+      </c>
+      <c r="F61">
+        <v>-0.0813129124929188</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +1931,156 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.01261589188690589</v>
+        <v>0.01432329122104755</v>
       </c>
       <c r="C63">
-        <v>0.03634494933616192</v>
+        <v>0.03141432531972862</v>
       </c>
       <c r="D63">
-        <v>-0.005134967958376199</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02368248121156876</v>
+      </c>
+      <c r="E63">
+        <v>0.0367753269113874</v>
+      </c>
+      <c r="F63">
+        <v>-0.07603168024579499</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.04987074262410777</v>
+        <v>0.05440566644691655</v>
       </c>
       <c r="C64">
-        <v>0.02963565882932667</v>
+        <v>0.05333393961776807</v>
       </c>
       <c r="D64">
-        <v>-0.006236967655114934</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.01250297309563106</v>
+      </c>
+      <c r="E64">
+        <v>0.02151051435641412</v>
+      </c>
+      <c r="F64">
+        <v>-0.08868367284876552</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.09224410368210975</v>
+        <v>0.06552009817708723</v>
       </c>
       <c r="C65">
-        <v>0.04885150157243882</v>
+        <v>0.04273928639030626</v>
       </c>
       <c r="D65">
-        <v>0.03288811197962124</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.08425814620065562</v>
+      </c>
+      <c r="E65">
+        <v>0.0338006004824102</v>
+      </c>
+      <c r="F65">
+        <v>-0.02646779647614497</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.0635713885548969</v>
+        <v>0.04875646346891292</v>
       </c>
       <c r="C66">
-        <v>0.1067139982355751</v>
+        <v>0.09173703691354226</v>
       </c>
       <c r="D66">
-        <v>0.02341555980782955</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.07861098050887648</v>
+      </c>
+      <c r="E66">
+        <v>0.02030422936147722</v>
+      </c>
+      <c r="F66">
+        <v>-0.09137353670866336</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.05654628926809997</v>
+        <v>0.04799643888734833</v>
       </c>
       <c r="C67">
-        <v>0.0309121234165704</v>
+        <v>0.03131290078519278</v>
       </c>
       <c r="D67">
-        <v>-0.007207140629885789</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.01607832516311282</v>
+      </c>
+      <c r="E67">
+        <v>0.01932772004997249</v>
+      </c>
+      <c r="F67">
+        <v>-0.053800855131357</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.120786080053278</v>
+        <v>0.1579814294122595</v>
       </c>
       <c r="C68">
-        <v>-0.2845511850075694</v>
+        <v>-0.2515588610341107</v>
       </c>
       <c r="D68">
-        <v>0.007082961157917892</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01749357269646878</v>
+      </c>
+      <c r="E68">
+        <v>0.0387984117224057</v>
+      </c>
+      <c r="F68">
+        <v>-0.01640772665577795</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.08597281968817945</v>
+        <v>0.08465818808062311</v>
       </c>
       <c r="C69">
-        <v>0.06818859631422441</v>
+        <v>0.08390909593306153</v>
       </c>
       <c r="D69">
-        <v>-0.0326877339649741</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.007228208374203501</v>
+      </c>
+      <c r="E69">
+        <v>0.02635609151796313</v>
+      </c>
+      <c r="F69">
+        <v>-0.09577124835560688</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2091,276 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1257554703965317</v>
+        <v>0.1491117556769389</v>
       </c>
       <c r="C71">
-        <v>-0.2428165038338896</v>
+        <v>-0.2291109324697672</v>
       </c>
       <c r="D71">
-        <v>0.01894376947616727</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.01605553131390183</v>
+      </c>
+      <c r="E71">
+        <v>0.05693434276972349</v>
+      </c>
+      <c r="F71">
+        <v>-0.05661727132967941</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.08224854944417161</v>
+        <v>0.09493508920480709</v>
       </c>
       <c r="C72">
-        <v>0.04796408385786116</v>
+        <v>0.05720887041082351</v>
       </c>
       <c r="D72">
-        <v>-0.01917245699391515</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.0206898656504315</v>
+      </c>
+      <c r="E72">
+        <v>0.01107093699486827</v>
+      </c>
+      <c r="F72">
+        <v>-0.08245632184548801</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.434341401899893</v>
+        <v>0.3448749681541879</v>
       </c>
       <c r="C73">
-        <v>0.06853042428025119</v>
+        <v>0.08696771233839637</v>
       </c>
       <c r="D73">
-        <v>0.01747167666729454</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.4182497190499747</v>
+      </c>
+      <c r="E73">
+        <v>-0.4966179054287173</v>
+      </c>
+      <c r="F73">
+        <v>0.295828061374349</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.1189594851675002</v>
+        <v>0.1105619741795092</v>
       </c>
       <c r="C74">
-        <v>0.1171202293897336</v>
+        <v>0.1029612422540054</v>
       </c>
       <c r="D74">
-        <v>-0.01130075949511995</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.02579817638640778</v>
+      </c>
+      <c r="E74">
+        <v>0.06686018892031521</v>
+      </c>
+      <c r="F74">
+        <v>-0.05925027466988816</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.2584360462458702</v>
+        <v>0.2542479058693724</v>
       </c>
       <c r="C75">
-        <v>0.133953415645626</v>
+        <v>0.1478040844117539</v>
       </c>
       <c r="D75">
-        <v>-0.04923119541162415</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1271578816317143</v>
+      </c>
+      <c r="E75">
+        <v>0.08239310228619168</v>
+      </c>
+      <c r="F75">
+        <v>-0.02292256861517426</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.1183351583157391</v>
+        <v>0.1268072501249975</v>
       </c>
       <c r="C76">
-        <v>0.1072694796355654</v>
+        <v>0.1091874416269106</v>
       </c>
       <c r="D76">
-        <v>-0.03313302883075978</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.05895268949925584</v>
+      </c>
+      <c r="E76">
+        <v>0.07194708861377411</v>
+      </c>
+      <c r="F76">
+        <v>-0.07110791773593189</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.0736131691056367</v>
+        <v>0.06021899379448673</v>
       </c>
       <c r="C77">
-        <v>0.0599625963412667</v>
+        <v>0.06719587360735108</v>
       </c>
       <c r="D77">
-        <v>0.03983495607006404</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.06529224031356615</v>
+      </c>
+      <c r="E77">
+        <v>0.06065278414692436</v>
+      </c>
+      <c r="F77">
+        <v>-0.1184881784136617</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.04334881712714057</v>
+        <v>0.04130598098285659</v>
       </c>
       <c r="C78">
-        <v>0.04404225859264406</v>
+        <v>0.05587274248410899</v>
       </c>
       <c r="D78">
-        <v>0.01280610395735098</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.0730213390884534</v>
+      </c>
+      <c r="E78">
+        <v>0.01789047107986163</v>
+      </c>
+      <c r="F78">
+        <v>-0.1033488571709312</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.01950582661340931</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.03411587051896978</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.05540743916994802</v>
+      </c>
+      <c r="E79">
+        <v>0.04199039594514065</v>
+      </c>
+      <c r="F79">
+        <v>-0.03267082057221617</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.04610436900787571</v>
+        <v>0.03386550008170353</v>
       </c>
       <c r="C80">
-        <v>0.05293219877650763</v>
+        <v>0.05180881791521122</v>
       </c>
       <c r="D80">
-        <v>0.02470423677470047</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.04794735780739443</v>
+      </c>
+      <c r="E80">
+        <v>0.009195856202316598</v>
+      </c>
+      <c r="F80">
+        <v>-0.03386112185427452</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1403057186729597</v>
+        <v>0.1385101209632458</v>
       </c>
       <c r="C81">
-        <v>0.08281602968350082</v>
+        <v>0.09917893701209875</v>
       </c>
       <c r="D81">
-        <v>-0.02191449432023109</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.09253034378352722</v>
+      </c>
+      <c r="E81">
+        <v>0.0820962673486665</v>
+      </c>
+      <c r="F81">
+        <v>-0.02576439238035856</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.07111605350156855</v>
+        <v>0.1903979561259883</v>
       </c>
       <c r="C82">
-        <v>0.04833309440433908</v>
+        <v>0.142450717727475</v>
       </c>
       <c r="D82">
-        <v>-0.02847638440587414</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2252499780812705</v>
+      </c>
+      <c r="E82">
+        <v>0.01946614028109698</v>
+      </c>
+      <c r="F82">
+        <v>-0.07814589922678965</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.02666138407720744</v>
+        <v>0.02631254773420216</v>
       </c>
       <c r="C83">
-        <v>0.0207667592218524</v>
+        <v>0.03862217334359558</v>
       </c>
       <c r="D83">
-        <v>0.01408994892635737</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03544573554343632</v>
+      </c>
+      <c r="E83">
+        <v>0.006944740558529277</v>
+      </c>
+      <c r="F83">
+        <v>-0.05109483482979738</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2371,236 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.2359655658820244</v>
+        <v>0.2037547629579809</v>
       </c>
       <c r="C85">
-        <v>0.1201121439520529</v>
+        <v>0.130284153385474</v>
       </c>
       <c r="D85">
-        <v>-0.1155070793002282</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1056954511100211</v>
+      </c>
+      <c r="E85">
+        <v>0.005687099532049419</v>
+      </c>
+      <c r="F85">
+        <v>0.01485083289876319</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.007091127100012321</v>
+        <v>0.01163832018033162</v>
       </c>
       <c r="C86">
-        <v>0.0207496132836261</v>
+        <v>0.02912360358150282</v>
       </c>
       <c r="D86">
-        <v>0.02301963057065335</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.076982682507239</v>
+      </c>
+      <c r="E86">
+        <v>0.04270923802868119</v>
+      </c>
+      <c r="F86">
+        <v>-0.1404532142899601</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.02001279332355217</v>
+        <v>0.01924457596243581</v>
       </c>
       <c r="C87">
-        <v>0.01899126627694376</v>
+        <v>0.02025535832542243</v>
       </c>
       <c r="D87">
-        <v>0.09268909890415687</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09220260953386569</v>
+      </c>
+      <c r="E87">
+        <v>0.08079990927872023</v>
+      </c>
+      <c r="F87">
+        <v>-0.09355059035410158</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.102289316256732</v>
+        <v>0.08819409993643371</v>
       </c>
       <c r="C88">
-        <v>0.07385087233174381</v>
+        <v>0.06493859302872908</v>
       </c>
       <c r="D88">
-        <v>-0.01654022346029347</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01412845151880608</v>
+      </c>
+      <c r="E88">
+        <v>0.03083231801543919</v>
+      </c>
+      <c r="F88">
+        <v>-0.07179533498343148</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.196080545530869</v>
+        <v>0.2317151604558335</v>
       </c>
       <c r="C89">
-        <v>-0.3739327916944917</v>
+        <v>-0.3769707790783018</v>
       </c>
       <c r="D89">
-        <v>-0.02455972355217882</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.01719233654335017</v>
+      </c>
+      <c r="E89">
+        <v>0.03461213379662946</v>
+      </c>
+      <c r="F89">
+        <v>-0.09970884873183866</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1815656037522908</v>
+        <v>0.20927218776312</v>
       </c>
       <c r="C90">
-        <v>-0.3453847913300039</v>
+        <v>-0.3155930933959535</v>
       </c>
       <c r="D90">
-        <v>0.008337848834367166</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.01226411238780384</v>
+      </c>
+      <c r="E90">
+        <v>0.06187699724465451</v>
+      </c>
+      <c r="F90">
+        <v>-0.04766847180666606</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.2010963684527698</v>
+        <v>0.1878177832080725</v>
       </c>
       <c r="C91">
-        <v>0.1187409860150066</v>
+        <v>0.1424809432281233</v>
       </c>
       <c r="D91">
-        <v>-0.04916151304687906</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1004881506912324</v>
+      </c>
+      <c r="E91">
+        <v>0.07480430109044546</v>
+      </c>
+      <c r="F91">
+        <v>-0.04798156245019466</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1727745545273391</v>
+        <v>0.189317430983944</v>
       </c>
       <c r="C92">
-        <v>-0.2795676749913749</v>
+        <v>-0.2718944450047422</v>
       </c>
       <c r="D92">
-        <v>-0.009672131544641334</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.005797616610222853</v>
+      </c>
+      <c r="E92">
+        <v>0.06938062417549952</v>
+      </c>
+      <c r="F92">
+        <v>-0.07092443594397191</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.205126900819861</v>
+        <v>0.2343059721825872</v>
       </c>
       <c r="C93">
-        <v>-0.3437693883337452</v>
+        <v>-0.3163366077414099</v>
       </c>
       <c r="D93">
-        <v>0.01408226204727369</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.000996093649229073</v>
+      </c>
+      <c r="E93">
+        <v>0.04886590996580758</v>
+      </c>
+      <c r="F93">
+        <v>-0.04245196793393581</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.288718853552367</v>
+        <v>0.3366430800090243</v>
       </c>
       <c r="C94">
-        <v>0.1618314305225855</v>
+        <v>0.2007286732061542</v>
       </c>
       <c r="D94">
-        <v>-0.06982087353192962</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4671260693135962</v>
+      </c>
+      <c r="E94">
+        <v>0.1688313124843802</v>
+      </c>
+      <c r="F94">
+        <v>0.4381863941132252</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.09655498644456177</v>
+        <v>0.08059320449867154</v>
       </c>
       <c r="C95">
-        <v>0.07449646558288561</v>
+        <v>0.07428159494268463</v>
       </c>
       <c r="D95">
-        <v>0.02195481469712629</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1490669239981794</v>
+      </c>
+      <c r="E95">
+        <v>-0.1443848371206702</v>
+      </c>
+      <c r="F95">
+        <v>-0.1985854773982128</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2611,16 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2631,36 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2054284702518113</v>
+        <v>0.1885763184299769</v>
       </c>
       <c r="C98">
-        <v>0.02268497752618017</v>
+        <v>0.04401902322539647</v>
       </c>
       <c r="D98">
-        <v>0.0154993769715099</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1703871192077556</v>
+      </c>
+      <c r="E98">
+        <v>-0.1569314790452255</v>
+      </c>
+      <c r="F98">
+        <v>0.04185650767131894</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2671,16 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2691,56 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.01186500472594148</v>
+        <v>0.005649201141139716</v>
       </c>
       <c r="C101">
-        <v>0.02600742087015236</v>
+        <v>0.02567030044546403</v>
       </c>
       <c r="D101">
-        <v>-0.01717366760924303</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.02353153253307055</v>
+      </c>
+      <c r="E101">
+        <v>0.03052730267017044</v>
+      </c>
+      <c r="F101">
+        <v>-0.09003657523091918</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
-        <v>-0.12124574044744</v>
+        <v>0.1205555559299225</v>
       </c>
       <c r="C102">
-        <v>0.07866981014995016</v>
+        <v>0.1025520782433593</v>
       </c>
       <c r="D102">
-        <v>-0.04440424238001036</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.05038041301560256</v>
+      </c>
+      <c r="E102">
+        <v>-0.01067735841172946</v>
+      </c>
+      <c r="F102">
+        <v>-0.03845758160389952</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
